--- a/digital-objects/omap/2-intestine-codex/v1.6/raw/omap-2-intestine-codex.xlsx
+++ b/digital-objects/omap/2-intestine-codex/v1.6/raw/omap-2-intestine-codex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/2-intestine-codex/v1.5/draft/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hrishi/codeBase/CNS/hra-kg/digital-objects/omap/2-intestine-codex/v1.6/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F22F7BC-DE08-164C-AC54-CC82C071AAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE70F1CE-B08F-C246-A3D4-A17AD20B11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1720" windowWidth="34560" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1720" windowWidth="34200" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-2-intestine-codex" sheetId="1" r:id="rId1"/>
@@ -4559,16 +4559,16 @@
     <t>Marker for epithelial cells, specifically enterocytes.</t>
   </si>
   <si>
-    <t>December 15, 2024</t>
-  </si>
-  <si>
-    <t>v1.5</t>
-  </si>
-  <si>
     <t>CD45RO is used to define a particular T cell activation state.</t>
   </si>
   <si>
     <t>https://doi.org/10.48539/HBM243.TNZD.275</t>
+  </si>
+  <si>
+    <t>December 15, 2025</t>
+  </si>
+  <si>
+    <t>v1.6</t>
   </si>
 </sst>
 </file>
@@ -5222,7 +5222,7 @@
   <dimension ref="A1:AT999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="A3:Z63"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5612,7 +5612,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
@@ -5664,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
@@ -5716,7 +5716,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="C10" s="36"/>
       <c r="D10" s="43"/>
@@ -7848,7 +7848,7 @@
         <v>48</v>
       </c>
       <c r="X32" s="48" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="Y32" s="35" t="s">
         <v>58</v>
